--- a/data/trans_orig/P64E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P64E-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{73B65CF6-CF92-4152-882A-E0CE401C145F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ABACB41-DA83-4BD7-BE43-D1FD3EA6A21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F13DAE4E-DCA3-4571-9DAB-05BA9C39F886}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E54487E-D394-4F64-BB09-26763CEC9F0F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="755">
   <si>
     <t>Población según el número de personas que trabajan bajo su responsabilidad en 2007 (Tasa respuesta: 42,65%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Más de 20</t>
@@ -86,13 +86,13 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>26,88%</t>
+    <t>24,09%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>7,24%</t>
+    <t>7,46%</t>
   </si>
   <si>
     <t>De 10 a 20</t>
@@ -101,7 +101,7 @@
     <t>4,12%</t>
   </si>
   <si>
-    <t>13,72%</t>
+    <t>13,89%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -110,7 +110,7 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>9,01%</t>
+    <t>9,8%</t>
   </si>
   <si>
     <t>De 6 a 9</t>
@@ -119,2139 +119,2145 @@
     <t>1,95%</t>
   </si>
   <si>
-    <t>10,1%</t>
+    <t>12,03%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>De 1 a 5</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>78,03%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 33,87%)</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>65,89%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>75,28%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>75,09%</t>
+  </si>
+  <si>
+    <t>81,44%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2016 (Tasa respuesta: 35,3%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2023 (Tasa respuesta: 42,26%)</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
     <t>6,18%</t>
   </si>
   <si>
-    <t>De 1 a 5</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>28,54%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>89,93%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>80,94%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>85,13%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
   </si>
   <si>
     <t>4,48%</t>
   </si>
   <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>79,88%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>75,01%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>83,43%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 33,87%)</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>65,85%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
   </si>
   <si>
     <t>3,48%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>65,32%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>2,04%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2015 (Tasa respuesta: 35,3%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>75,19%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,73%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>74,28%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>86,27%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2023 (Tasa respuesta: 42,26%)</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
     <t>10,0%</t>
   </si>
   <si>
@@ -2259,9 +2265,6 @@
   </si>
   <si>
     <t>11,64%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
   </si>
   <si>
     <t>5,26%</t>
@@ -2712,7 +2715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B9CEE7-B918-4260-801F-4AC0AD86AB25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0FDBE8-323A-44E5-9EE1-B949ABA6BA8C}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3485,10 +3488,10 @@
         <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3503,13 +3506,13 @@
         <v>14508</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3518,13 +3521,13 @@
         <v>3242</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -3533,13 +3536,13 @@
         <v>17750</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3554,13 +3557,13 @@
         <v>14447</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -3569,13 +3572,13 @@
         <v>3161</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -3584,13 +3587,13 @@
         <v>17608</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3608,13 @@
         <v>83302</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -3620,13 +3623,13 @@
         <v>18803</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>37</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -3635,13 +3638,13 @@
         <v>102105</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3656,13 +3659,13 @@
         <v>434255</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="H20" s="7">
         <v>221</v>
@@ -3671,13 +3674,13 @@
         <v>238455</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="M20" s="7">
         <v>616</v>
@@ -3686,13 +3689,13 @@
         <v>672709</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3748,7 +3751,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3760,13 +3763,13 @@
         <v>12113</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3775,13 +3778,13 @@
         <v>2942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -3790,13 +3793,13 @@
         <v>15056</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3814,13 @@
         <v>8036</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>68</v>
+        <v>147</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3826,13 +3829,13 @@
         <v>3864</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -3841,13 +3844,13 @@
         <v>11900</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3865,13 @@
         <v>11477</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>150</v>
+        <v>51</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3877,13 +3880,13 @@
         <v>2716</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>95</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -3892,13 +3895,13 @@
         <v>14193</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3916,13 @@
         <v>78899</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -3928,13 +3931,13 @@
         <v>16701</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -3943,13 +3946,13 @@
         <v>95600</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3967,13 @@
         <v>294939</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>187</v>
@@ -3979,13 +3982,13 @@
         <v>186909</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>92</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>455</v>
@@ -3994,13 +3997,13 @@
         <v>481849</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,7 +4059,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4068,13 +4071,13 @@
         <v>7656</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4083,13 +4086,13 @@
         <v>1956</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -4098,13 +4101,13 @@
         <v>9612</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4122,13 @@
         <v>7775</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -4134,13 +4137,13 @@
         <v>8357</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -4152,10 +4155,10 @@
         <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4170,13 +4173,13 @@
         <v>16612</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -4185,13 +4188,13 @@
         <v>2983</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -4200,13 +4203,13 @@
         <v>19594</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4221,13 +4224,13 @@
         <v>76172</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -4236,13 +4239,13 @@
         <v>25614</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M31" s="7">
         <v>106</v>
@@ -4251,13 +4254,13 @@
         <v>101786</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4275,13 @@
         <v>438900</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H32" s="7">
         <v>329</v>
@@ -4287,13 +4290,13 @@
         <v>348197</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="M32" s="7">
         <v>780</v>
@@ -4302,13 +4305,13 @@
         <v>787097</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4379,13 @@
         <v>30789</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>150</v>
+        <v>219</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>214</v>
+        <v>94</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>215</v>
+        <v>96</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -4391,13 +4394,13 @@
         <v>9600</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>144</v>
+        <v>100</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M34" s="7">
         <v>40</v>
@@ -4406,13 +4409,13 @@
         <v>40389</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4427,13 +4430,13 @@
         <v>35640</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>108</v>
+        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>15</v>
@@ -4442,13 +4445,13 @@
         <v>16457</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M35" s="7">
         <v>48</v>
@@ -4457,13 +4460,13 @@
         <v>52097</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4478,13 +4481,13 @@
         <v>50451</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>141</v>
+        <v>233</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -4493,13 +4496,13 @@
         <v>9838</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>72</v>
+        <v>237</v>
       </c>
       <c r="M36" s="7">
         <v>60</v>
@@ -4508,13 +4511,13 @@
         <v>60289</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4529,13 +4532,13 @@
         <v>282686</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="H37" s="7">
         <v>74</v>
@@ -4544,13 +4547,13 @@
         <v>78795</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="M37" s="7">
         <v>349</v>
@@ -4559,13 +4562,13 @@
         <v>361481</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4580,13 +4583,13 @@
         <v>1485577</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="H38" s="7">
         <v>864</v>
@@ -4595,13 +4598,13 @@
         <v>902849</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="M38" s="7">
         <v>2280</v>
@@ -4610,13 +4613,13 @@
         <v>2388426</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,7 +4675,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +4696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{420D4C3F-8E2B-4922-835D-FC019AC17A14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883CF81C-5D3E-4F3C-A94A-5502947A0F7F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4710,7 +4713,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4817,13 +4820,13 @@
         <v>2735</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4838,7 +4841,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4847,13 +4850,13 @@
         <v>2735</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,13 +4871,13 @@
         <v>1543</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4889,7 +4892,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4898,13 +4901,13 @@
         <v>1543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4919,13 +4922,13 @@
         <v>813</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4940,7 +4943,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4949,13 +4952,13 @@
         <v>813</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4970,13 +4973,13 @@
         <v>9894</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4985,13 +4988,13 @@
         <v>2268</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>204</v>
+        <v>277</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5000,13 +5003,13 @@
         <v>12162</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5021,13 +5024,13 @@
         <v>36748</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -5036,13 +5039,13 @@
         <v>22918</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -5051,13 +5054,13 @@
         <v>59667</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,7 +5134,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5140,13 +5143,13 @@
         <v>935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>282</v>
+        <v>234</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5155,13 +5158,13 @@
         <v>935</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5179,13 @@
         <v>2125</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5197,7 +5200,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5206,13 +5209,13 @@
         <v>3121</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5227,13 +5230,13 @@
         <v>11937</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5242,13 +5245,13 @@
         <v>935</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -5257,13 +5260,13 @@
         <v>12872</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>141</v>
+        <v>301</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5278,13 +5281,13 @@
         <v>26805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>253</v>
+        <v>304</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5293,13 +5296,13 @@
         <v>9143</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>297</v>
+        <v>192</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -5308,13 +5311,13 @@
         <v>35948</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>301</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5329,13 +5332,13 @@
         <v>178348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -5344,13 +5347,13 @@
         <v>125093</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="M14" s="7">
         <v>285</v>
@@ -5359,13 +5362,13 @@
         <v>303441</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5436,13 @@
         <v>6986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>312</v>
+        <v>97</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5448,13 +5451,13 @@
         <v>1019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5463,13 +5466,13 @@
         <v>8005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>52</v>
+        <v>141</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5487,13 @@
         <v>3854</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>318</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -5499,13 +5502,13 @@
         <v>2145</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>58</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5517,10 +5520,10 @@
         <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>322</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5538,13 @@
         <v>11403</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>324</v>
+        <v>51</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -5550,13 +5553,13 @@
         <v>3155</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>326</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -5565,13 +5568,13 @@
         <v>14558</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>102</v>
+        <v>331</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5589,13 @@
         <v>72577</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -5601,13 +5604,13 @@
         <v>32795</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -5616,13 +5619,13 @@
         <v>105373</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,13 +5640,13 @@
         <v>310804</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>214</v>
@@ -5652,13 +5655,13 @@
         <v>231548</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>501</v>
@@ -5667,13 +5670,13 @@
         <v>542352</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,7 +5732,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5741,13 +5744,13 @@
         <v>8356</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>348</v>
+        <v>228</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5762,7 +5765,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>350</v>
+        <v>187</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -5771,13 +5774,13 @@
         <v>10342</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>19</v>
+        <v>353</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5795,13 @@
         <v>6092</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -5807,13 +5810,13 @@
         <v>3067</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -5822,13 +5825,13 @@
         <v>9159</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>357</v>
+        <v>237</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>191</v>
+        <v>358</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5846,13 @@
         <v>4818</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>52</v>
+        <v>360</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>361</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5858,13 +5861,13 @@
         <v>2904</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5873,13 +5876,13 @@
         <v>7723</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>361</v>
+        <v>184</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>133</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5897,13 @@
         <v>61414</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -5909,13 +5912,13 @@
         <v>21366</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M25" s="7">
         <v>77</v>
@@ -5924,13 +5927,13 @@
         <v>82780</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>157</v>
+        <v>373</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5948,13 @@
         <v>241709</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="H26" s="7">
         <v>166</v>
@@ -5960,13 +5963,13 @@
         <v>185019</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>374</v>
+        <v>348</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="M26" s="7">
         <v>384</v>
@@ -5975,13 +5978,13 @@
         <v>426728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,7 +6040,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6049,13 +6052,13 @@
         <v>11894</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>380</v>
+        <v>158</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6064,13 +6067,13 @@
         <v>969</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -6079,13 +6082,13 @@
         <v>12863</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>216</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6103,13 @@
         <v>10490</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>384</v>
+        <v>180</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6115,13 +6118,13 @@
         <v>3905</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>195</v>
+        <v>388</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -6130,13 +6133,13 @@
         <v>14395</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6154,13 @@
         <v>9985</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>390</v>
+        <v>114</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>110</v>
+        <v>393</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -6166,13 +6169,13 @@
         <v>3828</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>196</v>
+        <v>394</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -6181,13 +6184,13 @@
         <v>13813</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>262</v>
+        <v>395</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>297</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6205,13 @@
         <v>90565</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="H31" s="7">
         <v>22</v>
@@ -6217,13 +6220,13 @@
         <v>23370</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="M31" s="7">
         <v>111</v>
@@ -6232,13 +6235,13 @@
         <v>113935</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6253,13 +6256,13 @@
         <v>293886</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="H32" s="7">
         <v>257</v>
@@ -6268,13 +6271,13 @@
         <v>268406</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="M32" s="7">
         <v>541</v>
@@ -6283,13 +6286,13 @@
         <v>562293</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>370</v>
+        <v>413</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6360,13 @@
         <v>29971</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -6372,13 +6375,13 @@
         <v>4909</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
@@ -6387,13 +6390,13 @@
         <v>34880</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>109</v>
+        <v>419</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>348</v>
+        <v>420</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>421</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6411,13 @@
         <v>24104</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>217</v>
+        <v>422</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>390</v>
+        <v>190</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>177</v>
+        <v>324</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -6423,13 +6426,13 @@
         <v>10114</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>413</v>
+        <v>25</v>
       </c>
       <c r="M35" s="7">
         <v>31</v>
@@ -6438,13 +6441,13 @@
         <v>34218</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>415</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6462,13 @@
         <v>38956</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>416</v>
+        <v>240</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>417</v>
+        <v>34</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -6474,13 +6477,13 @@
         <v>10822</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>214</v>
+        <v>426</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>67</v>
+        <v>301</v>
       </c>
       <c r="M36" s="7">
         <v>47</v>
@@ -6492,10 +6495,10 @@
         <v>67</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>419</v>
+        <v>428</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>420</v>
+        <v>328</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6513,13 @@
         <v>261256</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="H37" s="7">
         <v>77</v>
@@ -6525,13 +6528,13 @@
         <v>88942</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="M37" s="7">
         <v>326</v>
@@ -6540,13 +6543,13 @@
         <v>350198</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>427</v>
+        <v>83</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6561,13 +6564,13 @@
         <v>1061495</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="H38" s="7">
         <v>774</v>
@@ -6576,28 +6579,28 @@
         <v>832985</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="M38" s="7">
         <v>1771</v>
       </c>
       <c r="N38" s="7">
-        <v>1894480</v>
+        <v>1894481</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,7 +6642,7 @@
         <v>2204</v>
       </c>
       <c r="N39" s="7">
-        <v>2363553</v>
+        <v>2363554</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>49</v>
@@ -6653,7 +6656,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -6674,7 +6677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E876A05-BC12-4205-A898-8F7E753D2A50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D713645C-D251-4D3A-A0D3-FEC94560784A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6691,7 +6694,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6804,7 +6807,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6819,7 +6822,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6834,7 +6837,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6855,7 +6858,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6870,7 +6873,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6885,7 +6888,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6900,13 +6903,13 @@
         <v>993</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6915,13 +6918,13 @@
         <v>816</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6930,13 +6933,13 @@
         <v>1809</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6951,13 +6954,13 @@
         <v>4232</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -6966,13 +6969,13 @@
         <v>1712</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>452</v>
+        <v>122</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6981,13 +6984,13 @@
         <v>5944</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>454</v>
+        <v>382</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7002,13 +7005,13 @@
         <v>37688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -7017,13 +7020,13 @@
         <v>27363</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="M8" s="7">
         <v>66</v>
@@ -7032,13 +7035,13 @@
         <v>65051</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>463</v>
+        <v>210</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,13 +7109,13 @@
         <v>1021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>320</v>
+        <v>98</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7127,7 +7130,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>465</v>
+        <v>225</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -7136,13 +7139,13 @@
         <v>1021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>321</v>
+        <v>470</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,13 +7160,13 @@
         <v>2937</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -7178,7 +7181,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -7187,13 +7190,13 @@
         <v>4826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7208,13 +7211,13 @@
         <v>4128</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>409</v>
+        <v>181</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -7229,7 +7232,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>325</v>
+        <v>477</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -7238,13 +7241,13 @@
         <v>6016</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>472</v>
+        <v>52</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7259,13 +7262,13 @@
         <v>20514</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -7274,13 +7277,13 @@
         <v>6623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>483</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -7289,13 +7292,13 @@
         <v>27137</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>238</v>
+        <v>487</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7310,13 +7313,13 @@
         <v>170669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -7325,13 +7328,13 @@
         <v>127079</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="M14" s="7">
         <v>292</v>
@@ -7340,13 +7343,13 @@
         <v>297748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,13 +7417,13 @@
         <v>7611</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>490</v>
+        <v>70</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7432,10 +7435,10 @@
         <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>145</v>
+        <v>499</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7444,13 +7447,13 @@
         <v>12926</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7468,13 @@
         <v>2798</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -7480,13 +7483,13 @@
         <v>885</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>322</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -7495,13 +7498,13 @@
         <v>3683</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>493</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>466</v>
+        <v>419</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,13 +7519,13 @@
         <v>13525</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>496</v>
+        <v>301</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -7537,7 +7540,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>297</v>
+        <v>200</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -7546,13 +7549,13 @@
         <v>15952</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>289</v>
+        <v>504</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7567,13 +7570,13 @@
         <v>38185</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="H19" s="7">
         <v>16</v>
@@ -7582,13 +7585,13 @@
         <v>16933</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="M19" s="7">
         <v>51</v>
@@ -7597,13 +7600,13 @@
         <v>55118</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>505</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>28</v>
+        <v>512</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7618,13 +7621,13 @@
         <v>348289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="H20" s="7">
         <v>242</v>
@@ -7633,13 +7636,13 @@
         <v>247184</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="M20" s="7">
         <v>556</v>
@@ -7648,13 +7651,13 @@
         <v>595474</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7710,7 +7713,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7725,10 +7728,10 @@
         <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>523</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>516</v>
+        <v>16</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7737,13 +7740,13 @@
         <v>1925</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>312</v>
+        <v>524</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>517</v>
+        <v>421</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -7752,13 +7755,13 @@
         <v>5101</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>519</v>
+        <v>327</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>520</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7776,10 +7779,10 @@
         <v>51</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>521</v>
+        <v>416</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -7788,13 +7791,13 @@
         <v>940</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>189</v>
+        <v>526</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -7803,13 +7806,13 @@
         <v>6426</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>522</v>
+        <v>223</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>386</v>
+        <v>527</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>66</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7824,13 +7827,13 @@
         <v>7964</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7842,10 +7845,10 @@
         <v>94</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -7854,13 +7857,13 @@
         <v>10940</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7875,13 +7878,13 @@
         <v>58519</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="H25" s="7">
         <v>23</v>
@@ -7890,13 +7893,13 @@
         <v>24796</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>533</v>
+        <v>538</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -7905,13 +7908,13 @@
         <v>83315</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7926,13 +7929,13 @@
         <v>282400</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="H26" s="7">
         <v>235</v>
@@ -7941,28 +7944,28 @@
         <v>238936</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>211</v>
+        <v>546</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M26" s="7">
         <v>493</v>
       </c>
       <c r="N26" s="7">
-        <v>521336</v>
+        <v>521335</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8004,7 +8007,7 @@
         <v>586</v>
       </c>
       <c r="N27" s="7">
-        <v>627119</v>
+        <v>627118</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>49</v>
@@ -8018,7 +8021,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8030,13 +8033,13 @@
         <v>6286</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>546</v>
+        <v>236</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8051,7 +8054,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>353</v>
+        <v>552</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8060,13 +8063,13 @@
         <v>6286</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>521</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>549</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8081,13 +8084,13 @@
         <v>7672</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>490</v>
+        <v>97</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -8096,13 +8099,13 @@
         <v>1903</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>551</v>
+        <v>52</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>229</v>
+        <v>555</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -8111,13 +8114,13 @@
         <v>9576</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>384</v>
+        <v>557</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8132,13 +8135,13 @@
         <v>17049</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>554</v>
+        <v>457</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -8147,13 +8150,13 @@
         <v>8957</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>56</v>
+        <v>388</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -8162,13 +8165,13 @@
         <v>26006</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>98</v>
+        <v>562</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8183,13 +8186,13 @@
         <v>54894</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="H31" s="7">
         <v>22</v>
@@ -8198,13 +8201,13 @@
         <v>23835</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="M31" s="7">
         <v>76</v>
@@ -8213,13 +8216,13 @@
         <v>78729</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8234,13 +8237,13 @@
         <v>313482</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="H32" s="7">
         <v>271</v>
@@ -8249,13 +8252,13 @@
         <v>285776</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>573</v>
+        <v>547</v>
       </c>
       <c r="M32" s="7">
         <v>580</v>
@@ -8264,13 +8267,13 @@
         <v>599258</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8338,13 +8341,13 @@
         <v>18094</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>155</v>
+        <v>581</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>577</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -8353,13 +8356,13 @@
         <v>7240</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>136</v>
+        <v>584</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -8368,13 +8371,13 @@
         <v>25334</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>580</v>
+        <v>190</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>260</v>
+        <v>585</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8389,13 +8392,13 @@
         <v>18894</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>465</v>
+        <v>225</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>73</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>98</v>
+        <v>528</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -8404,13 +8407,13 @@
         <v>5616</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>361</v>
+        <v>184</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>583</v>
+        <v>331</v>
       </c>
       <c r="M35" s="7">
         <v>22</v>
@@ -8419,13 +8422,13 @@
         <v>24511</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>584</v>
+        <v>420</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>585</v>
+        <v>179</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>109</v>
+        <v>587</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8440,13 +8443,13 @@
         <v>43659</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>523</v>
+        <v>589</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>69</v>
+        <v>189</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -8455,13 +8458,13 @@
         <v>17064</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>352</v>
+        <v>220</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>347</v>
+        <v>226</v>
       </c>
       <c r="M36" s="7">
         <v>55</v>
@@ -8470,13 +8473,13 @@
         <v>60722</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>587</v>
+        <v>324</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>221</v>
+        <v>151</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8491,13 +8494,13 @@
         <v>176344</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>590</v>
+        <v>125</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="H37" s="7">
         <v>69</v>
@@ -8506,13 +8509,13 @@
         <v>73900</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="M37" s="7">
         <v>232</v>
@@ -8521,13 +8524,13 @@
         <v>250244</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>597</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8542,13 +8545,13 @@
         <v>1152529</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="H38" s="7">
         <v>909</v>
@@ -8557,10 +8560,10 @@
         <v>926338</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>602</v>
+        <v>462</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>603</v>
@@ -8575,10 +8578,10 @@
         <v>604</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8634,7 +8637,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -8655,7 +8658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D3E72B1-7BB6-4793-BDF3-E7E6FCA9BA9C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3E5CCC-4D95-4861-A327-30F889BEC00D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8672,7 +8675,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8785,7 +8788,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8800,7 +8803,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8815,7 +8818,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8836,7 +8839,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8851,7 +8854,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8866,7 +8869,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8881,13 +8884,13 @@
         <v>1748</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>609</v>
+        <v>330</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>610</v>
+        <v>565</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8902,7 +8905,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -8911,13 +8914,13 @@
         <v>1748</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8932,13 +8935,13 @@
         <v>2461</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -8947,13 +8950,13 @@
         <v>1201</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -8965,10 +8968,10 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>448</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9087,13 +9090,13 @@
         <v>2258</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>184</v>
+        <v>625</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -9108,7 +9111,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>181</v>
+        <v>626</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -9117,13 +9120,13 @@
         <v>2258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9141,10 +9144,10 @@
         <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -9153,13 +9156,13 @@
         <v>1441</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>353</v>
+        <v>552</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>628</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -9168,10 +9171,10 @@
         <v>5230</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>584</v>
+        <v>420</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>629</v>
+        <v>57</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>630</v>
@@ -9204,13 +9207,13 @@
         <v>3593</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>181</v>
+        <v>626</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>356</v>
+        <v>554</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -9222,10 +9225,10 @@
         <v>633</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>411</v>
+        <v>634</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>634</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9255,13 +9258,13 @@
         <v>12131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>638</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -9270,7 +9273,7 @@
         <v>47110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>639</v>
+        <v>596</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>640</v>
@@ -9294,10 +9297,10 @@
         <v>642</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>643</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="H14" s="7">
         <v>312</v>
@@ -9306,7 +9309,7 @@
         <v>212212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>405</v>
+        <v>643</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>644</v>
@@ -9327,7 +9330,7 @@
         <v>647</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>648</v>
+        <v>442</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9395,13 +9398,13 @@
         <v>15671</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>587</v>
+        <v>324</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -9410,13 +9413,13 @@
         <v>3200</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>65</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -9425,10 +9428,10 @@
         <v>18871</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>651</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>631</v>
@@ -9446,13 +9449,13 @@
         <v>64635</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -9461,13 +9464,13 @@
         <v>8012</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>654</v>
+        <v>193</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -9476,13 +9479,13 @@
         <v>72647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>656</v>
+        <v>480</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9497,13 +9500,13 @@
         <v>30633</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>658</v>
+        <v>477</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>659</v>
+        <v>533</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -9512,13 +9515,13 @@
         <v>5305</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>181</v>
+        <v>626</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -9527,13 +9530,13 @@
         <v>35938</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>662</v>
+        <v>589</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9548,13 +9551,13 @@
         <v>55266</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -9563,13 +9566,13 @@
         <v>33259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="M19" s="7">
         <v>106</v>
@@ -9578,13 +9581,13 @@
         <v>88525</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9599,13 +9602,13 @@
         <v>463556</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="H20" s="7">
         <v>528</v>
@@ -9614,13 +9617,13 @@
         <v>394321</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="M20" s="7">
         <v>944</v>
@@ -9629,13 +9632,13 @@
         <v>857879</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9691,7 +9694,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9703,13 +9706,13 @@
         <v>12125</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -9718,13 +9721,13 @@
         <v>1528</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>683</v>
+        <v>587</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -9733,13 +9736,13 @@
         <v>13653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>415</v>
+        <v>676</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>678</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9754,13 +9757,13 @@
         <v>7486</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>685</v>
+        <v>197</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>97</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -9769,13 +9772,13 @@
         <v>3286</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>522</v>
+        <v>223</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>519</v>
+        <v>327</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -9784,13 +9787,13 @@
         <v>10772</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>688</v>
+        <v>428</v>
       </c>
       <c r="P23" s="7" t="s">
         <v>62</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9805,13 +9808,13 @@
         <v>12601</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>690</v>
+        <v>119</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>654</v>
+        <v>193</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>28</v>
+        <v>682</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -9823,10 +9826,10 @@
         <v>51</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>285</v>
+        <v>55</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -9835,10 +9838,10 @@
         <v>17523</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>179</v>
+        <v>684</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>19</v>
@@ -9856,13 +9859,13 @@
         <v>43932</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -9871,13 +9874,13 @@
         <v>18707</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>593</v>
+        <v>688</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -9886,13 +9889,13 @@
         <v>62639</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9907,13 +9910,13 @@
         <v>286709</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="H26" s="7">
         <v>378</v>
@@ -9922,13 +9925,13 @@
         <v>292322</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="M26" s="7">
         <v>635</v>
@@ -9937,13 +9940,13 @@
         <v>579030</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9999,7 +10002,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10011,13 +10014,13 @@
         <v>12472</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>223</v>
+        <v>457</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>703</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -10026,13 +10029,13 @@
         <v>4723</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>522</v>
+        <v>223</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -10041,10 +10044,10 @@
         <v>17195</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>654</v>
+        <v>193</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>22</v>
@@ -10062,13 +10065,13 @@
         <v>5912</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>223</v>
+        <v>457</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -10077,13 +10080,13 @@
         <v>5037</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>147</v>
+        <v>707</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -10092,10 +10095,10 @@
         <v>10950</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>546</v>
+        <v>354</v>
       </c>
       <c r="Q29" s="7" t="s">
         <v>25</v>
@@ -10113,13 +10116,13 @@
         <v>10207</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>388</v>
+        <v>709</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -10128,13 +10131,13 @@
         <v>7838</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>713</v>
+        <v>73</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>187</v>
+        <v>710</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -10143,13 +10146,13 @@
         <v>18045</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10164,13 +10167,13 @@
         <v>46067</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="H31" s="7">
         <v>42</v>
@@ -10179,13 +10182,13 @@
         <v>29520</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="M31" s="7">
         <v>89</v>
@@ -10194,13 +10197,13 @@
         <v>75587</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10215,13 +10218,13 @@
         <v>416276</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="H32" s="7">
         <v>534</v>
@@ -10230,13 +10233,13 @@
         <v>415749</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="M32" s="7">
         <v>933</v>
@@ -10245,13 +10248,13 @@
         <v>832025</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10319,13 +10322,13 @@
         <v>42527</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>63</v>
+        <v>551</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -10334,13 +10337,13 @@
         <v>9451</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>353</v>
+        <v>552</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="M34" s="7">
         <v>51</v>
@@ -10349,13 +10352,13 @@
         <v>51978</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>683</v>
+        <v>587</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>685</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10370,13 +10373,13 @@
         <v>81823</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>71</v>
+        <v>730</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="H35" s="7">
         <v>25</v>
@@ -10385,13 +10388,13 @@
         <v>17776</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>490</v>
+        <v>733</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>520</v>
+        <v>734</v>
       </c>
       <c r="M35" s="7">
         <v>53</v>
@@ -10400,10 +10403,10 @@
         <v>99599</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>465</v>
+        <v>225</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>735</v>
@@ -10421,13 +10424,13 @@
         <v>63492</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>282</v>
+        <v>736</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -10436,13 +10439,13 @@
         <v>21658</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>284</v>
+        <v>364</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>413</v>
+        <v>738</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
@@ -10451,13 +10454,13 @@
         <v>85150</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>685</v>
+        <v>197</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10472,13 +10475,13 @@
         <v>182705</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H37" s="7">
         <v>142</v>
@@ -10487,13 +10490,13 @@
         <v>94817</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>740</v>
+        <v>369</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="M37" s="7">
         <v>325</v>
@@ -10502,13 +10505,13 @@
         <v>277522</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10523,13 +10526,13 @@
         <v>1456432</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="H38" s="7">
         <v>1820</v>
@@ -10538,13 +10541,13 @@
         <v>1358498</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="M38" s="7">
         <v>3179</v>
@@ -10553,13 +10556,13 @@
         <v>2814931</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10615,7 +10618,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P64E-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P64E-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5ABACB41-DA83-4BD7-BE43-D1FD3EA6A21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{483BEFA5-97D7-4EF5-9EE8-298D343A7542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2E54487E-D394-4F64-BB09-26763CEC9F0F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9C0EF70D-C01E-4E43-B2E4-FAD638D041F7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="759">
   <si>
     <t>Población según el número de personas que trabajan bajo su responsabilidad en 2007 (Tasa respuesta: 42,65%)</t>
   </si>
@@ -86,13 +86,13 @@
     <t>7,98%</t>
   </si>
   <si>
-    <t>24,09%</t>
+    <t>24,48%</t>
   </si>
   <si>
     <t>2,37%</t>
   </si>
   <si>
-    <t>7,46%</t>
+    <t>8,33%</t>
   </si>
   <si>
     <t>De 10 a 20</t>
@@ -101,7 +101,7 @@
     <t>4,12%</t>
   </si>
   <si>
-    <t>13,89%</t>
+    <t>14,25%</t>
   </si>
   <si>
     <t>7,06%</t>
@@ -110,7 +110,7 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>9,8%</t>
+    <t>9,59%</t>
   </si>
   <si>
     <t>De 6 a 9</t>
@@ -119,13 +119,13 @@
     <t>1,95%</t>
   </si>
   <si>
-    <t>12,03%</t>
+    <t>9,84%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>5,59%</t>
+    <t>5,61%</t>
   </si>
   <si>
     <t>De 1 a 5</t>
@@ -134,2176 +134,2188 @@
     <t>13,94%</t>
   </si>
   <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>Ninguna</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>61,04%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>78,0%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>74,68%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>79,26%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>68,28%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>80,56%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 33,87%)</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>81,36%</t>
+  </si>
+  <si>
+    <t>75,63%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>18,9%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>74,97%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2016 (Tasa respuesta: 35,3%)</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>74,85%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>87,17%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
+  </si>
+  <si>
+    <t>79,55%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>74,1%</t>
+  </si>
+  <si>
+    <t>82,56%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>81,77%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2023 (Tasa respuesta: 42,26%)</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>92,56%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>81,53%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
     <t>6,0%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>Ninguna</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
     <t>3,44%</t>
   </si>
   <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>78,03%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>80,97%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>76,78%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>78,8%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2012 (Tasa respuesta: 33,87%)</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>81,36%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
     <t>3,25%</t>
   </si>
   <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>74,97%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>74,99%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>85,27%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>81,44%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2016 (Tasa respuesta: 35,3%)</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>97,39%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>78,98%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>83,13%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
-  </si>
-  <si>
-    <t>74,06%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>Población según el número de personas que trabajan bajo su responsabilidad en 2023 (Tasa respuesta: 42,26%)</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
   </si>
   <si>
     <t>82,69%</t>
   </si>
   <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>85,13%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
     <t>90,43%</t>
   </si>
   <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>89,09%</t>
   </si>
   <si>
     <t>84,55%</t>
   </si>
   <si>
-    <t>78,93%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>80,53%</t>
   </si>
 </sst>
 </file>
@@ -2715,7 +2727,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0FDBE8-323A-44E5-9EE1-B949ABA6BA8C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746CAEF5-6187-409E-8D4E-65A7135527D4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3318,10 +3330,10 @@
         <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>48</v>
@@ -3330,13 +3342,13 @@
         <v>51351</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3351,13 +3363,13 @@
         <v>272873</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="H14" s="7">
         <v>106</v>
@@ -3366,13 +3378,13 @@
         <v>110428</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>369</v>
@@ -3381,13 +3393,13 @@
         <v>383302</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,7 +3455,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3455,13 +3467,13 @@
         <v>6071</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -3470,13 +3482,13 @@
         <v>1939</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -3485,13 +3497,13 @@
         <v>8010</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3506,13 +3518,13 @@
         <v>14508</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3521,13 +3533,13 @@
         <v>3242</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -3536,13 +3548,13 @@
         <v>17750</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3557,13 +3569,13 @@
         <v>14447</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -3572,13 +3584,13 @@
         <v>3161</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>16</v>
@@ -3587,13 +3599,13 @@
         <v>17608</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>118</v>
+        <v>56</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3608,13 +3620,13 @@
         <v>83302</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -3623,13 +3635,13 @@
         <v>18803</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>94</v>
@@ -3638,13 +3650,13 @@
         <v>102105</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3659,13 +3671,13 @@
         <v>434255</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H20" s="7">
         <v>221</v>
@@ -3674,13 +3686,13 @@
         <v>238455</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="M20" s="7">
         <v>616</v>
@@ -3689,13 +3701,13 @@
         <v>672709</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,7 +3763,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3763,13 +3775,13 @@
         <v>12113</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -3778,13 +3790,13 @@
         <v>2942</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -3793,13 +3805,13 @@
         <v>15056</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,13 +3826,13 @@
         <v>8036</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -3829,13 +3841,13 @@
         <v>3864</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M23" s="7">
         <v>12</v>
@@ -3844,13 +3856,13 @@
         <v>11900</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,13 +3877,13 @@
         <v>11477</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -3880,13 +3892,13 @@
         <v>2716</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M24" s="7">
         <v>15</v>
@@ -3895,13 +3907,13 @@
         <v>14193</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,13 +3928,13 @@
         <v>78899</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H25" s="7">
         <v>16</v>
@@ -3931,13 +3943,13 @@
         <v>16701</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -3946,13 +3958,13 @@
         <v>95600</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3967,13 +3979,13 @@
         <v>294939</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H26" s="7">
         <v>187</v>
@@ -3982,13 +3994,13 @@
         <v>186909</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M26" s="7">
         <v>455</v>
@@ -3997,13 +4009,13 @@
         <v>481849</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,7 +4071,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -4071,13 +4083,13 @@
         <v>7656</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -4086,13 +4098,13 @@
         <v>1956</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M28" s="7">
         <v>10</v>
@@ -4101,13 +4113,13 @@
         <v>9612</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4122,13 +4134,13 @@
         <v>7775</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>187</v>
+        <v>22</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -4137,13 +4149,13 @@
         <v>8357</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>68</v>
+        <v>185</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -4155,10 +4167,10 @@
         <v>72</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>191</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4173,13 +4185,13 @@
         <v>16612</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -4188,13 +4200,13 @@
         <v>2983</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="M30" s="7">
         <v>20</v>
@@ -4203,13 +4215,13 @@
         <v>19594</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,13 +4236,13 @@
         <v>76172</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H31" s="7">
         <v>24</v>
@@ -4239,13 +4251,13 @@
         <v>25614</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="M31" s="7">
         <v>106</v>
@@ -4254,13 +4266,13 @@
         <v>101786</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4275,13 +4287,13 @@
         <v>438900</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H32" s="7">
         <v>329</v>
@@ -4290,13 +4302,13 @@
         <v>348197</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M32" s="7">
         <v>780</v>
@@ -4305,13 +4317,13 @@
         <v>787097</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4391,13 @@
         <v>30789</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="H34" s="7">
         <v>10</v>
@@ -4394,13 +4406,13 @@
         <v>9600</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M34" s="7">
         <v>40</v>
@@ -4409,13 +4421,13 @@
         <v>40389</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4442,13 @@
         <v>35640</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H35" s="7">
         <v>15</v>
@@ -4445,13 +4457,13 @@
         <v>16457</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="M35" s="7">
         <v>48</v>
@@ -4460,13 +4472,13 @@
         <v>52097</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4481,13 +4493,13 @@
         <v>50451</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -4496,13 +4508,13 @@
         <v>9838</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M36" s="7">
         <v>60</v>
@@ -4511,13 +4523,13 @@
         <v>60289</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,13 +4544,13 @@
         <v>282686</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>241</v>
+        <v>124</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H37" s="7">
         <v>74</v>
@@ -4547,13 +4559,13 @@
         <v>78795</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M37" s="7">
         <v>349</v>
@@ -4562,13 +4574,13 @@
         <v>361481</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4583,13 +4595,13 @@
         <v>1485577</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="H38" s="7">
         <v>864</v>
@@ -4598,13 +4610,13 @@
         <v>902849</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="M38" s="7">
         <v>2280</v>
@@ -4613,13 +4625,13 @@
         <v>2388426</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4675,7 +4687,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4696,7 +4708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883CF81C-5D3E-4F3C-A94A-5502947A0F7F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E660A07-030A-471C-A852-ECFC1879B676}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4713,7 +4725,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4820,13 +4832,13 @@
         <v>2735</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4841,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4850,13 +4862,13 @@
         <v>2735</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4871,13 +4883,13 @@
         <v>1543</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4892,7 +4904,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -4901,13 +4913,13 @@
         <v>1543</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4922,13 +4934,13 @@
         <v>813</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4943,7 +4955,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -4952,13 +4964,13 @@
         <v>813</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4973,13 +4985,13 @@
         <v>9894</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -4988,13 +5000,13 @@
         <v>2268</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M7" s="7">
         <v>12</v>
@@ -5003,13 +5015,13 @@
         <v>12162</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5024,13 +5036,13 @@
         <v>36748</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H8" s="7">
         <v>20</v>
@@ -5039,13 +5051,13 @@
         <v>22918</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -5054,13 +5066,13 @@
         <v>59667</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,7 +5146,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>1</v>
@@ -5143,13 +5155,13 @@
         <v>935</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5158,13 +5170,13 @@
         <v>935</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5179,13 +5191,13 @@
         <v>2125</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>235</v>
+        <v>150</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -5194,13 +5206,13 @@
         <v>997</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -5209,13 +5221,13 @@
         <v>3121</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>11</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5230,13 +5242,13 @@
         <v>11937</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -5245,13 +5257,13 @@
         <v>935</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -5260,13 +5272,13 @@
         <v>12872</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>301</v>
+        <v>149</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5281,13 +5293,13 @@
         <v>26805</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -5296,13 +5308,13 @@
         <v>9143</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>192</v>
+        <v>302</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -5311,13 +5323,13 @@
         <v>35948</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,13 +5344,13 @@
         <v>178348</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H14" s="7">
         <v>117</v>
@@ -5347,13 +5359,13 @@
         <v>125093</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="M14" s="7">
         <v>285</v>
@@ -5362,13 +5374,13 @@
         <v>303441</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,7 +5436,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5436,13 +5448,13 @@
         <v>6986</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -5451,13 +5463,13 @@
         <v>1019</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5466,13 +5478,13 @@
         <v>8005</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>141</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5487,13 +5499,13 @@
         <v>3854</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>65</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -5502,13 +5514,13 @@
         <v>2145</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>58</v>
+        <v>141</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -5520,10 +5532,10 @@
         <v>64</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>149</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,10 +5550,10 @@
         <v>11403</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>329</v>
@@ -5553,13 +5565,13 @@
         <v>3155</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>330</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>321</v>
+        <v>99</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -5568,13 +5580,13 @@
         <v>14558</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>331</v>
+        <v>193</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>332</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5601,13 @@
         <v>72577</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="H19" s="7">
         <v>25</v>
@@ -5604,13 +5616,13 @@
         <v>32795</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>90</v>
@@ -5619,13 +5631,13 @@
         <v>105373</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,13 +5652,13 @@
         <v>310804</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>214</v>
@@ -5655,13 +5667,13 @@
         <v>231548</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>501</v>
@@ -5670,13 +5682,13 @@
         <v>542352</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,7 +5744,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5744,13 +5756,13 @@
         <v>8356</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>351</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>228</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -5765,7 +5777,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>351</v>
       </c>
       <c r="M22" s="7">
         <v>8</v>
@@ -5774,10 +5786,10 @@
         <v>10342</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>325</v>
+        <v>64</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>353</v>
@@ -5795,13 +5807,13 @@
         <v>6092</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -5810,13 +5822,13 @@
         <v>3067</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>57</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -5825,13 +5837,13 @@
         <v>9159</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>237</v>
+        <v>357</v>
       </c>
       <c r="P23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5846,13 +5858,13 @@
         <v>4818</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5861,13 +5873,13 @@
         <v>2904</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -5876,13 +5888,13 @@
         <v>7723</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,10 +5978,10 @@
         <v>377</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M26" s="7">
         <v>384</v>
@@ -5978,13 +5990,13 @@
         <v>426728</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6040,7 +6052,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6052,13 +6064,13 @@
         <v>11894</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>158</v>
+        <v>384</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6067,13 +6079,13 @@
         <v>969</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="M28" s="7">
         <v>11</v>
@@ -6082,13 +6094,13 @@
         <v>12863</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6103,13 +6115,13 @@
         <v>10490</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>180</v>
+        <v>291</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>386</v>
+        <v>142</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H29" s="7">
         <v>3</v>
@@ -6118,7 +6130,7 @@
         <v>3905</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>388</v>
+        <v>107</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>389</v>
@@ -6133,13 +6145,13 @@
         <v>14395</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,13 +6166,13 @@
         <v>9985</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>114</v>
+        <v>394</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -6169,13 +6181,13 @@
         <v>3828</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="M30" s="7">
         <v>13</v>
@@ -6184,10 +6196,10 @@
         <v>13813</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>395</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
         <v>396</v>
@@ -6334,7 +6346,7 @@
         <v>689</v>
       </c>
       <c r="N33" s="7">
-        <v>717299</v>
+        <v>717300</v>
       </c>
       <c r="O33" s="7" t="s">
         <v>49</v>
@@ -6363,10 +6375,10 @@
         <v>415</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>200</v>
+        <v>417</v>
       </c>
       <c r="H34" s="7">
         <v>5</v>
@@ -6375,13 +6387,13 @@
         <v>4909</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M34" s="7">
         <v>29</v>
@@ -6390,13 +6402,13 @@
         <v>34880</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>419</v>
+        <v>102</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>420</v>
+        <v>145</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>421</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6423,13 @@
         <v>24104</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>422</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>190</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>324</v>
+        <v>61</v>
       </c>
       <c r="H35" s="7">
         <v>9</v>
@@ -6432,7 +6444,7 @@
         <v>424</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>25</v>
+        <v>425</v>
       </c>
       <c r="M35" s="7">
         <v>31</v>
@@ -6441,13 +6453,13 @@
         <v>34218</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>228</v>
+        <v>98</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>233</v>
+        <v>426</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6462,13 +6474,13 @@
         <v>38956</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>240</v>
+        <v>427</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>301</v>
+        <v>428</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>34</v>
+        <v>429</v>
       </c>
       <c r="H36" s="7">
         <v>10</v>
@@ -6477,13 +6489,13 @@
         <v>10822</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>301</v>
+        <v>67</v>
       </c>
       <c r="M36" s="7">
         <v>47</v>
@@ -6495,10 +6507,10 @@
         <v>67</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>328</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,13 +6525,13 @@
         <v>261256</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="H37" s="7">
         <v>77</v>
@@ -6528,13 +6540,13 @@
         <v>88942</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="M37" s="7">
         <v>326</v>
@@ -6543,13 +6555,13 @@
         <v>350198</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>83</v>
+        <v>440</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6564,13 +6576,13 @@
         <v>1061495</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="H38" s="7">
         <v>774</v>
@@ -6579,13 +6591,13 @@
         <v>832985</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>440</v>
+        <v>91</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="M38" s="7">
         <v>1771</v>
@@ -6594,13 +6606,13 @@
         <v>1894481</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>444</v>
+        <v>412</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6656,7 +6668,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -6677,7 +6689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D713645C-D251-4D3A-A0D3-FEC94560784A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E83DF4-F0C1-48BE-BA6E-30D2909A97FB}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6694,7 +6706,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6807,7 +6819,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6822,7 +6834,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6837,7 +6849,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6858,7 +6870,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -6873,7 +6885,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6888,7 +6900,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6903,13 +6915,13 @@
         <v>993</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>450</v>
+        <v>215</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H6" s="7">
         <v>1</v>
@@ -6918,13 +6930,13 @@
         <v>816</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>452</v>
+        <v>293</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -6933,13 +6945,13 @@
         <v>1809</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>454</v>
+        <v>322</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6954,10 +6966,10 @@
         <v>4232</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>457</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>458</v>
@@ -6975,7 +6987,7 @@
         <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>122</v>
+        <v>460</v>
       </c>
       <c r="M7" s="7">
         <v>6</v>
@@ -6984,13 +6996,13 @@
         <v>5944</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7005,13 +7017,13 @@
         <v>37688</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="H8" s="7">
         <v>29</v>
@@ -7020,13 +7032,13 @@
         <v>27363</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M8" s="7">
         <v>66</v>
@@ -7035,13 +7047,13 @@
         <v>65051</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>210</v>
+        <v>470</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7109,13 +7121,13 @@
         <v>1021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>98</v>
+        <v>472</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -7130,7 +7142,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>225</v>
+        <v>416</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -7139,13 +7151,13 @@
         <v>1021</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>193</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7160,13 +7172,13 @@
         <v>2937</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>471</v>
+        <v>286</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -7181,7 +7193,7 @@
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
@@ -7190,13 +7202,13 @@
         <v>4826</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>60</v>
+        <v>476</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>474</v>
+        <v>351</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7211,13 +7223,13 @@
         <v>4128</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>181</v>
+        <v>418</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -7232,7 +7244,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -7241,13 +7253,13 @@
         <v>6016</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>52</v>
+        <v>480</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7262,13 +7274,13 @@
         <v>20514</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -7277,13 +7289,13 @@
         <v>6623</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>483</v>
+        <v>25</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M13" s="7">
         <v>26</v>
@@ -7292,13 +7304,13 @@
         <v>27137</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7313,13 +7325,13 @@
         <v>170669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="H14" s="7">
         <v>132</v>
@@ -7328,13 +7340,13 @@
         <v>127079</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>492</v>
+        <v>281</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M14" s="7">
         <v>292</v>
@@ -7343,13 +7355,13 @@
         <v>297748</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7405,7 +7417,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7417,13 +7429,13 @@
         <v>7611</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>497</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>70</v>
+        <v>498</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -7435,10 +7447,10 @@
         <v>25</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>480</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>499</v>
+        <v>148</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -7447,13 +7459,13 @@
         <v>12926</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>330</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7468,7 +7480,7 @@
         <v>2798</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
@@ -7483,13 +7495,13 @@
         <v>885</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -7498,13 +7510,13 @@
         <v>3683</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>501</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>419</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7519,13 +7531,13 @@
         <v>13525</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>301</v>
+        <v>147</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>503</v>
+        <v>459</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -7540,7 +7552,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>200</v>
+        <v>504</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -7549,13 +7561,13 @@
         <v>15952</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>388</v>
+        <v>142</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>505</v>
+        <v>356</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7600,13 +7612,13 @@
         <v>55118</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>512</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,13 +7633,13 @@
         <v>348289</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="H20" s="7">
         <v>242</v>
@@ -7636,7 +7648,7 @@
         <v>247184</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>517</v>
+        <v>247</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>518</v>
@@ -7713,7 +7725,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7728,10 +7740,10 @@
         <v>64</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>523</v>
+        <v>290</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>16</v>
+        <v>233</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -7740,13 +7752,13 @@
         <v>1925</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>421</v>
+        <v>524</v>
       </c>
       <c r="M22" s="7">
         <v>5</v>
@@ -7758,10 +7770,10 @@
         <v>525</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>327</v>
+        <v>473</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>526</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7779,10 +7791,10 @@
         <v>51</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>148</v>
+        <v>256</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -7791,13 +7803,13 @@
         <v>940</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>106</v>
+        <v>527</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M23" s="7">
         <v>5</v>
@@ -7806,13 +7818,13 @@
         <v>6426</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>527</v>
+        <v>389</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>231</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7827,13 +7839,13 @@
         <v>7964</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>183</v>
+        <v>531</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -7842,13 +7854,13 @@
         <v>2976</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>11</v>
+        <v>527</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="M24" s="7">
         <v>10</v>
@@ -7857,13 +7869,13 @@
         <v>10940</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>533</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7878,7 +7890,7 @@
         <v>58519</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>534</v>
+        <v>442</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>535</v>
@@ -7896,10 +7908,10 @@
         <v>537</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>538</v>
+        <v>264</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>539</v>
+        <v>455</v>
       </c>
       <c r="M25" s="7">
         <v>73</v>
@@ -7908,13 +7920,13 @@
         <v>83315</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7929,13 +7941,13 @@
         <v>282400</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="H26" s="7">
         <v>235</v>
@@ -7944,28 +7956,28 @@
         <v>238936</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M26" s="7">
         <v>493</v>
       </c>
       <c r="N26" s="7">
-        <v>521335</v>
+        <v>521336</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8007,7 +8019,7 @@
         <v>586</v>
       </c>
       <c r="N27" s="7">
-        <v>627118</v>
+        <v>627119</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>49</v>
@@ -8021,7 +8033,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -8033,13 +8045,13 @@
         <v>6286</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>236</v>
+        <v>550</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>551</v>
+        <v>74</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -8054,7 +8066,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M28" s="7">
         <v>6</v>
@@ -8063,13 +8075,13 @@
         <v>6286</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>553</v>
+        <v>531</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>497</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8084,13 +8096,13 @@
         <v>7672</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>97</v>
+        <v>552</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>554</v>
+        <v>390</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -8099,13 +8111,13 @@
         <v>1903</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>52</v>
+        <v>553</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>555</v>
+        <v>426</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -8114,13 +8126,13 @@
         <v>9576</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>556</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8135,13 +8147,13 @@
         <v>17049</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>457</v>
+        <v>556</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -8150,13 +8162,13 @@
         <v>8957</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>388</v>
+        <v>104</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M30" s="7">
         <v>23</v>
@@ -8165,13 +8177,13 @@
         <v>26006</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8186,13 +8198,13 @@
         <v>54894</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>565</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>566</v>
       </c>
       <c r="H31" s="7">
         <v>22</v>
@@ -8201,13 +8213,13 @@
         <v>23835</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>567</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>568</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>569</v>
       </c>
       <c r="M31" s="7">
         <v>76</v>
@@ -8216,13 +8228,13 @@
         <v>78729</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>571</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,13 +8249,13 @@
         <v>313482</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>573</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>574</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="H32" s="7">
         <v>271</v>
@@ -8252,13 +8264,13 @@
         <v>285776</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>577</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>547</v>
       </c>
       <c r="M32" s="7">
         <v>580</v>
@@ -8267,13 +8279,13 @@
         <v>599258</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>579</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8341,13 +8353,13 @@
         <v>18094</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>195</v>
+        <v>317</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>198</v>
+        <v>425</v>
       </c>
       <c r="H34" s="7">
         <v>7</v>
@@ -8356,13 +8368,13 @@
         <v>7240</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>583</v>
+        <v>290</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>584</v>
+        <v>286</v>
       </c>
       <c r="M34" s="7">
         <v>23</v>
@@ -8371,13 +8383,13 @@
         <v>25334</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>190</v>
+        <v>422</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>582</v>
+        <v>523</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8392,13 +8404,13 @@
         <v>18894</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>225</v>
+        <v>416</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>73</v>
+        <v>325</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>528</v>
+        <v>582</v>
       </c>
       <c r="H35" s="7">
         <v>6</v>
@@ -8407,13 +8419,13 @@
         <v>5616</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>184</v>
+        <v>583</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>331</v>
+        <v>420</v>
       </c>
       <c r="M35" s="7">
         <v>22</v>
@@ -8422,13 +8434,13 @@
         <v>24511</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>179</v>
+        <v>480</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>587</v>
+        <v>328</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8443,13 +8455,13 @@
         <v>43659</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>189</v>
+        <v>587</v>
       </c>
       <c r="H36" s="7">
         <v>16</v>
@@ -8458,13 +8470,13 @@
         <v>17064</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>590</v>
+        <v>218</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>220</v>
+        <v>394</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>226</v>
+        <v>588</v>
       </c>
       <c r="M36" s="7">
         <v>55</v>
@@ -8473,13 +8485,13 @@
         <v>60722</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>324</v>
+        <v>589</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>151</v>
+        <v>352</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8494,10 +8506,10 @@
         <v>176344</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>593</v>
@@ -8527,10 +8539,10 @@
         <v>597</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>598</v>
+        <v>202</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>451</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8545,13 +8557,13 @@
         <v>1152529</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>600</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>601</v>
       </c>
       <c r="H38" s="7">
         <v>909</v>
@@ -8560,13 +8572,13 @@
         <v>926338</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>462</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>603</v>
       </c>
       <c r="M38" s="7">
         <v>1987</v>
@@ -8575,13 +8587,13 @@
         <v>2078867</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>604</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8637,7 +8649,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -8658,7 +8670,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3E5CCC-4D95-4861-A327-30F889BEC00D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F36B58A-509A-4707-9BAA-CF341A12A478}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8675,7 +8687,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8788,7 +8800,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8803,7 +8815,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>609</v>
+        <v>233</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -8818,7 +8830,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8839,7 +8851,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -8854,7 +8866,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>609</v>
+        <v>233</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -8869,7 +8881,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8884,13 +8896,13 @@
         <v>1748</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>565</v>
+        <v>608</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -8905,7 +8917,7 @@
         <v>12</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>609</v>
+        <v>233</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -8914,13 +8926,13 @@
         <v>1748</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>610</v>
+        <v>526</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8935,13 +8947,13 @@
         <v>2461</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>612</v>
+        <v>329</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>425</v>
+        <v>286</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -8950,13 +8962,13 @@
         <v>1201</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>609</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>556</v>
+        <v>283</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>614</v>
+        <v>565</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -8968,10 +8980,10 @@
         <v>13</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>425</v>
+        <v>611</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8986,13 +8998,13 @@
         <v>46506</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="H8" s="7">
         <v>68</v>
@@ -9001,13 +9013,13 @@
         <v>43893</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M8" s="7">
         <v>112</v>
@@ -9016,13 +9028,13 @@
         <v>90398</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -9090,13 +9102,13 @@
         <v>2258</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -9111,7 +9123,7 @@
         <v>12</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>626</v>
+        <v>476</v>
       </c>
       <c r="M10" s="7">
         <v>2</v>
@@ -9120,13 +9132,13 @@
         <v>2258</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9144,10 +9156,10 @@
         <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>389</v>
+        <v>623</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>628</v>
+        <v>503</v>
       </c>
       <c r="H11" s="7">
         <v>3</v>
@@ -9156,13 +9168,13 @@
         <v>1441</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>66</v>
+        <v>426</v>
       </c>
       <c r="M11" s="7">
         <v>7</v>
@@ -9171,13 +9183,13 @@
         <v>5230</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>420</v>
+        <v>394</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>57</v>
+        <v>625</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9192,13 +9204,13 @@
         <v>8303</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>64</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="H12" s="7">
         <v>5</v>
@@ -9207,13 +9219,13 @@
         <v>3593</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>626</v>
+        <v>476</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>554</v>
+        <v>629</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -9222,13 +9234,13 @@
         <v>11897</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>563</v>
+        <v>479</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9243,13 +9255,13 @@
         <v>34979</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -9258,13 +9270,13 @@
         <v>12131</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>638</v>
+        <v>417</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -9273,13 +9285,13 @@
         <v>47110</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>596</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9294,13 +9306,13 @@
         <v>243386</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>639</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>440</v>
+        <v>170</v>
       </c>
       <c r="H14" s="7">
         <v>312</v>
@@ -9309,13 +9321,13 @@
         <v>212212</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="M14" s="7">
         <v>555</v>
@@ -9324,13 +9336,13 @@
         <v>455599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>442</v>
+        <v>645</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9386,7 +9398,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -9398,13 +9410,13 @@
         <v>15671</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>324</v>
+        <v>589</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H16" s="7">
         <v>5</v>
@@ -9413,13 +9425,13 @@
         <v>3200</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>649</v>
+        <v>317</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>65</v>
+        <v>584</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -9428,13 +9440,13 @@
         <v>18871</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>182</v>
+        <v>647</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>423</v>
+        <v>648</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>631</v>
+        <v>433</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9452,10 +9464,10 @@
         <v>597</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>650</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -9464,13 +9476,13 @@
         <v>8012</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>193</v>
+        <v>650</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>195</v>
+        <v>68</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="M17" s="7">
         <v>22</v>
@@ -9479,10 +9491,10 @@
         <v>72647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>480</v>
+        <v>652</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>531</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>653</v>
@@ -9500,10 +9512,10 @@
         <v>30633</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>477</v>
+        <v>153</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>533</v>
+        <v>302</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>654</v>
@@ -9515,13 +9527,13 @@
         <v>5305</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>626</v>
+        <v>359</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>450</v>
+        <v>655</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -9530,13 +9542,13 @@
         <v>35938</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>589</v>
+        <v>657</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9551,13 +9563,13 @@
         <v>55266</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H19" s="7">
         <v>47</v>
@@ -9566,13 +9578,13 @@
         <v>33259</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="M19" s="7">
         <v>106</v>
@@ -9581,13 +9593,13 @@
         <v>88525</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>664</v>
+        <v>198</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>308</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9602,13 +9614,13 @@
         <v>463556</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="H20" s="7">
         <v>528</v>
@@ -9617,13 +9629,13 @@
         <v>394321</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="M20" s="7">
         <v>944</v>
@@ -9632,13 +9644,13 @@
         <v>857879</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9694,7 +9706,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -9706,13 +9718,13 @@
         <v>12125</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>675</v>
+        <v>232</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>509</v>
+        <v>677</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -9721,13 +9733,13 @@
         <v>1528</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>587</v>
+        <v>611</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -9736,10 +9748,10 @@
         <v>13653</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>676</v>
+        <v>100</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>677</v>
+        <v>430</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>678</v>
@@ -9757,10 +9769,10 @@
         <v>7486</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>197</v>
+        <v>426</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>97</v>
+        <v>525</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>679</v>
@@ -9772,13 +9784,13 @@
         <v>3286</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>327</v>
+        <v>60</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>680</v>
+        <v>472</v>
       </c>
       <c r="M23" s="7">
         <v>11</v>
@@ -9787,13 +9799,13 @@
         <v>10772</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9808,13 +9820,13 @@
         <v>12601</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>119</v>
+        <v>681</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>193</v>
+        <v>682</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -9826,10 +9838,10 @@
         <v>51</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>291</v>
+        <v>553</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>55</v>
+        <v>684</v>
       </c>
       <c r="M24" s="7">
         <v>17</v>
@@ -9838,13 +9850,13 @@
         <v>17523</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>683</v>
+        <v>61</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>19</v>
+        <v>686</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9859,13 +9871,13 @@
         <v>43932</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -9874,13 +9886,13 @@
         <v>18707</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -9889,13 +9901,13 @@
         <v>62639</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9910,13 +9922,13 @@
         <v>286709</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H26" s="7">
         <v>378</v>
@@ -9925,13 +9937,13 @@
         <v>292322</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="M26" s="7">
         <v>635</v>
@@ -9940,13 +9952,13 @@
         <v>579030</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10002,7 +10014,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -10014,13 +10026,13 @@
         <v>12472</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>457</v>
+        <v>705</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -10029,13 +10041,13 @@
         <v>4723</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>223</v>
+        <v>187</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>704</v>
+        <v>112</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="M28" s="7">
         <v>19</v>
@@ -10044,13 +10056,13 @@
         <v>17195</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>193</v>
+        <v>650</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>677</v>
+        <v>708</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>22</v>
+        <v>709</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -10065,13 +10077,13 @@
         <v>5912</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>457</v>
+        <v>711</v>
       </c>
       <c r="H29" s="7">
         <v>7</v>
@@ -10080,13 +10092,13 @@
         <v>5037</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -10095,13 +10107,13 @@
         <v>10950</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>418</v>
+        <v>631</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>354</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>25</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10116,13 +10128,13 @@
         <v>10207</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>272</v>
+        <v>423</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="H30" s="7">
         <v>11</v>
@@ -10131,13 +10143,13 @@
         <v>7838</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>650</v>
+        <v>715</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>73</v>
+        <v>716</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="M30" s="7">
         <v>22</v>
@@ -10146,13 +10158,13 @@
         <v>18045</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>114</v>
+        <v>718</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>560</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10167,13 +10179,13 @@
         <v>46067</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>711</v>
+        <v>719</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="H31" s="7">
         <v>42</v>
@@ -10182,13 +10194,13 @@
         <v>29520</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>713</v>
+        <v>721</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>715</v>
+        <v>723</v>
       </c>
       <c r="M31" s="7">
         <v>89</v>
@@ -10197,13 +10209,13 @@
         <v>75587</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>716</v>
+        <v>635</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10218,13 +10230,13 @@
         <v>416276</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>720</v>
+        <v>307</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="H32" s="7">
         <v>534</v>
@@ -10233,13 +10245,13 @@
         <v>415749</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="M32" s="7">
         <v>933</v>
@@ -10248,13 +10260,13 @@
         <v>832025</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10322,13 +10334,13 @@
         <v>42527</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>728</v>
+        <v>655</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>551</v>
+        <v>735</v>
       </c>
       <c r="H34" s="7">
         <v>14</v>
@@ -10337,13 +10349,13 @@
         <v>9451</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>389</v>
+        <v>527</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>272</v>
+        <v>430</v>
       </c>
       <c r="M34" s="7">
         <v>51</v>
@@ -10352,13 +10364,13 @@
         <v>51978</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>587</v>
+        <v>736</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>197</v>
+        <v>737</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10373,13 +10385,13 @@
         <v>81823</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>731</v>
+        <v>102</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>732</v>
+        <v>739</v>
       </c>
       <c r="H35" s="7">
         <v>25</v>
@@ -10388,13 +10400,13 @@
         <v>17776</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>733</v>
+        <v>185</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>734</v>
+        <v>528</v>
       </c>
       <c r="M35" s="7">
         <v>53</v>
@@ -10403,13 +10415,13 @@
         <v>99599</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>225</v>
+        <v>740</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10424,13 +10436,13 @@
         <v>63492</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>736</v>
+        <v>714</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>679</v>
+        <v>742</v>
       </c>
       <c r="H36" s="7">
         <v>31</v>
@@ -10439,13 +10451,13 @@
         <v>21658</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>235</v>
+        <v>145</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>738</v>
+        <v>67</v>
       </c>
       <c r="M36" s="7">
         <v>87</v>
@@ -10454,13 +10466,13 @@
         <v>85150</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>683</v>
+        <v>61</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>197</v>
+        <v>743</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>652</v>
+        <v>744</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10475,13 +10487,13 @@
         <v>182705</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="H37" s="7">
         <v>142</v>
@@ -10493,10 +10505,10 @@
         <v>369</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>660</v>
+        <v>565</v>
       </c>
       <c r="M37" s="7">
         <v>325</v>
@@ -10505,13 +10517,13 @@
         <v>277522</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10523,16 +10535,16 @@
         <v>1359</v>
       </c>
       <c r="D38" s="7">
-        <v>1456432</v>
+        <v>1456433</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="H38" s="7">
         <v>1820</v>
@@ -10541,13 +10553,13 @@
         <v>1358498</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>751</v>
+        <v>602</v>
       </c>
       <c r="M38" s="7">
         <v>3179</v>
@@ -10556,13 +10568,13 @@
         <v>2814931</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>754</v>
+        <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10574,7 +10586,7 @@
         <v>1663</v>
       </c>
       <c r="D39" s="7">
-        <v>1826979</v>
+        <v>1826980</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>49</v>
@@ -10618,7 +10630,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
